--- a/src/web/movie/電影.xlsx
+++ b/src/web/movie/電影.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blind\Desktop\HSU\SPOTFLIX\SPOTIFLIX\src\web\movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD53C46-770E-403E-910D-63ED43621767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EA598BF-8797-4648-BAED-E42279DB31E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1482,7 +1481,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22">
     <font>
       <sz val="12"/>
@@ -2039,11 +2038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4678A866-7D6A-448F-964E-E39E9044FB27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="17"/>
@@ -3627,43 +3626,43 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{7DECE984-F5AD-4499-BFC5-B45AF2DD3B5F}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{AAA1D4A4-3C95-47AA-BD99-6404F81BFEC5}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{8B6B3AC9-C1CD-4DB5-B623-D325C87C44A7}"/>
-    <hyperlink ref="F2" r:id="rId4" display="https://www.google.com/search?sxsrf=ALeKk02QCZGbxGZhypVklxDu5zsPL_2zUw:1592058941531&amp;q=%E5%A5%9A%E5%B2%B3%E9%9A%86&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEwrLjYwKDazVIJwkyrj84pzUpK1xLKTrfTTMnNywYRVSmZRanJJftEiVs6nS2c93bT55ay2HayMAL6BpZRHAAAA&amp;sa=X&amp;ved=2ahUKEwi8jq_dgf_pAhUnGaYKHe62Co8QmxMoATAeegQIERAD" xr:uid="{1AF7872F-6B7D-4FB9-89F4-D1317E5901DC}"/>
-    <hyperlink ref="F3" r:id="rId5" display="https://www.google.com/search?sxsrf=ALeKk030vLD0knXig3SqrFedh-aQwFfjIg:1592059124884&amp;q=%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E4%BD%A9%E8%B0%A2&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NMxIrjIsLMyxUIJw07JLkguS0iu1xLKTrfTTMnNywYRVSmZRanJJftEiVpGnG_Y87V_yrLvz2bT1h7Y_2bvyxYZFO1gZASWVVgFSAAAA&amp;sa=X&amp;ved=2ahUKEwi1_uW0gv_pAhUCK6YKHYTwCBkQmxMoATAkegQIDhAD" xr:uid="{A8C6B286-3044-4FC8-B68E-CE10353375CF}"/>
-    <hyperlink ref="F5" r:id="rId6" display="https://www.google.com/search?sxsrf=ALeKk00Rcuds17Z70ne8PVLWudANImselQ:1592059156582&amp;q=%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%88%B4%E5%85%8B+%E7%94%B5%E5%BD%B1%E5%AF%BC%E6%BC%94&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEzLsywrMDYoUuLWz9U3MDQ0KojPKdISy0620k_LzMkFE1YpmUWpySX5RYtY5V5s7ng2bf2zjQ2Htj_r2PK0tVvh-ZStT_dufLp-z7M9U3awMgIANE0H8loAAAA&amp;sa=X&amp;ved=2ahUKEwjI5_TDgv_pAhVRFqYKHcM-BZAQmxMoATAbegQIDhAD" xr:uid="{234FDB1B-4404-42A0-96C5-A16C58BC2934}"/>
-    <hyperlink ref="F6" r:id="rId7" display="https://www.google.com/search?sxsrf=ALeKk01L-y5zGdvCNWYlnd9fEojfkSxuLg:1592058729084&amp;q=%E9%82%81%E5%85%8B%E7%88%BE%C2%B7%E6%9F%A5%E9%9F%8B%E6%96%AF&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NMwwzDUtzkouVIJw0zLKswuzc0y0xLKTrfTTMnNywYRVSmZRanJJftEiVpGXTY1PW7ufd-w7tP3Z_KUv53c_m7Z-BysjAMdK8_ZSAAAA&amp;sa=X&amp;ved=2ahUKEwjwsoj4gP_pAhVHFqYKHWKHBwcQmxMoATAgegQIDxAD" xr:uid="{22929000-ED86-4D03-9C4E-303D7A8B32A3}"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://www.google.com/search?sxsrf=ALeKk00d7IMF4lwIFhAP9Tfi8rSLg7CcPg:1592059392199&amp;q=%E9%99%B0%E6%AB%A5+kwang-bin+kim&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NMwwK4nPNc8qUuLSz9U3yMgrLK7I0hLLTrbST8vMyQUTVimZRanJJflFi1hFXs7c8Gz1UoXs8sS8dN2kzDyF7MzcHayMAAonLYpPAAAA&amp;sa=X&amp;ved=2ahUKEwi-0qG0g__pAhVOG6YKHX7YBxQQmxMoATAbegQIFRAD" xr:uid="{37A5F764-B738-4E8D-AFD0-A7A925D28375}"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://www.google.com/search?sxsrf=ALeKk00OjmJ7P3EnJhEkum_RxjXDDfmlVA:1592060094506&amp;q=%E5%96%AC%E7%99%BB%C2%B7%E7%9A%AE%E7%88%BE&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEzLMjFNyjEqUuLUz9U3SCpIyTbXEstOttJPy8zJBRNWKZlFqckl-UWLWPmeTlvzfObuQ9ufz1r3vGPfDlZGAJSuKeRIAAAA&amp;sa=X&amp;ved=2ahUKEwjnm5ODhv_pAhVHBKYKHQ8iCxMQmxMoATAbegQIDxAD" xr:uid="{25EE18D5-AF41-495D-8282-78B3AFCE844B}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{824DFF62-C501-483E-B65F-1E7BB895D0A9}"/>
-    <hyperlink ref="F11" r:id="rId11" display="https://www.google.com/search?sxsrf=ALeKk03E1ZHzrCpDcwavhHxe7X7WmfG6Eg:1592060516086&amp;q=%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E6%AC%A7%E5%BC%97%E5%85%B0%E5%A4%9A&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEzLzq0wqDApVuLSz9U3yEtOMcw21hLLTrbST8vMyQUTVimZRanJJflFi1jFn67rfLpv-_PmjkPbn61Z_nTP9KetG54umbWDlREA3z1IaVIAAAA&amp;sa=X&amp;ved=2ahUKEwiCnJbMh__pAhUvGaYKHeI3By8QmxMoATAZegQICxAD" xr:uid="{1850F8ED-9AD5-4424-8E7B-0DC03BD36F66}"/>
-    <hyperlink ref="G11" r:id="rId12" xr:uid="{FBACA393-2497-4F39-A78C-52730EE77959}"/>
-    <hyperlink ref="C12" r:id="rId13" display="https://ddm.com.tw/blog/post/blockers" xr:uid="{AF5D4425-FA5F-4BE0-B2AC-C7447E62EB01}"/>
-    <hyperlink ref="C13" r:id="rId14" display="https://ddm.com.tw/blog/post/deathofstalin" xr:uid="{8449055D-6A2D-4A71-9220-2BE356C4A130}"/>
-    <hyperlink ref="C14" r:id="rId15" display="https://ddm.com.tw/blog/post/thelittlehours" xr:uid="{CEFE8A88-B5B5-4013-910E-532B34BFFC54}"/>
-    <hyperlink ref="C16" r:id="rId16" display="https://ddm.com.tw/blog/post/lesensdelafete" xr:uid="{A2EECF5C-EA05-4A6D-91F8-F1060A1D9F0A}"/>
-    <hyperlink ref="C17" r:id="rId17" display="https://ddm.com.tw/blog/post/ifeelpretty" xr:uid="{9C1E4CB2-3E61-46B7-AC69-28B671879C0D}"/>
-    <hyperlink ref="C18" r:id="rId18" display="https://ddm.com.tw/blog/post/brotheroftheyear" xr:uid="{4556353C-B417-4F08-9F1A-258F759FE604}"/>
-    <hyperlink ref="C19" r:id="rId19" display="https://ddm.com.tw/blog/post/spywhodumpedme" xr:uid="{F4C70BCF-510F-4845-8825-8C6B5EDD82AC}"/>
-    <hyperlink ref="C20" r:id="rId20" display="https://ddm.com.tw/blog/post/idealhome" xr:uid="{18A55BE9-D06B-49DA-A458-0C0C2484CCDA}"/>
-    <hyperlink ref="K12" r:id="rId21" display="https://ddm.com.tw/blog/post/blockers" xr:uid="{7FEE4E56-27B9-4334-B18C-B642F247130F}"/>
-    <hyperlink ref="K13" r:id="rId22" display="https://ddm.com.tw/blog/post/deathofstalin" xr:uid="{0A80CFF8-4025-4C28-B4C0-3DB3FB9505F6}"/>
-    <hyperlink ref="K14" r:id="rId23" display="https://ddm.com.tw/blog/post/thelittlehours" xr:uid="{F20C8032-76C8-4905-84E2-3CDD75AC4E93}"/>
-    <hyperlink ref="K15" r:id="rId24" display="https://ddm.com.tw/blog/post/319473144" xr:uid="{6CF91996-422C-400F-94A5-7A2A29FA9542}"/>
-    <hyperlink ref="K16" r:id="rId25" display="https://ddm.com.tw/blog/post/lesensdelafete" xr:uid="{1C4B97DE-9ED2-446A-BE0A-FB1ACF2860EB}"/>
-    <hyperlink ref="K17" r:id="rId26" display="https://ddm.com.tw/blog/post/ifeelpretty" xr:uid="{FE561A45-729B-4AF5-A1FA-8DBC155E70E9}"/>
-    <hyperlink ref="K18" r:id="rId27" display="https://ddm.com.tw/blog/post/brotheroftheyear" xr:uid="{CA3B5F12-6D88-4620-B7B3-193A61EB7ABA}"/>
-    <hyperlink ref="K19" r:id="rId28" display="https://ddm.com.tw/blog/post/spywhodumpedme" xr:uid="{6CC49F7A-A773-4D70-B8A6-4834DC517A33}"/>
-    <hyperlink ref="K20" r:id="rId29" display="https://ddm.com.tw/blog/post/idealhome" xr:uid="{267BA01D-50A9-4AD9-BFA4-7581A721629D}"/>
-    <hyperlink ref="K25" r:id="rId30" display="https://ddm.com.tw/blog/post/coco" xr:uid="{3BAE89BD-FCA7-4EFA-858B-3A9DAF1AB8D0}"/>
-    <hyperlink ref="K28" r:id="rId31" display="https://ddm.com.tw/blog/post/342965146" xr:uid="{05B317DE-FB5F-4F1B-8E9A-4A707D3A5D97}"/>
-    <hyperlink ref="I9" r:id="rId32" xr:uid="{4D247168-E1B7-4B5E-AE5D-22D4AB07D41B}"/>
-    <hyperlink ref="G9" r:id="rId33" xr:uid="{786655A4-48D7-4EE2-BADF-26FF5C9E2AE0}"/>
-    <hyperlink ref="K33" r:id="rId34" display="https://ddm.com.tw/blog/post/avengers4-dummies" xr:uid="{FFE2EE07-3BFB-4EF1-861A-E0939DC8B631}"/>
-    <hyperlink ref="K36" r:id="rId35" display="https://ddm.com.tw/blog/post/339969740" xr:uid="{F0764BCD-135F-42BE-8522-1BC8DA3EB277}"/>
-    <hyperlink ref="K42" r:id="rId36" display="https://ddm.com.tw/blog/post/fiftyshadesfreed" xr:uid="{281999DE-DDEF-47C8-B7F0-513E34E560DA}"/>
-    <hyperlink ref="K44" r:id="rId37" display="https://ddm.com.tw/blog/post/midnightsun" xr:uid="{2C6BFD4C-F41E-486D-8313-52586FB30D40}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4" display="https://www.google.com/search?sxsrf=ALeKk02QCZGbxGZhypVklxDu5zsPL_2zUw:1592058941531&amp;q=%E5%A5%9A%E5%B2%B3%E9%9A%86&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEwrLjYwKDazVIJwkyrj84pzUpK1xLKTrfTTMnNywYRVSmZRanJJftEiVs6nS2c93bT55ay2HayMAL6BpZRHAAAA&amp;sa=X&amp;ved=2ahUKEwi8jq_dgf_pAhUnGaYKHe62Co8QmxMoATAeegQIERAD"/>
+    <hyperlink ref="F3" r:id="rId5" display="https://www.google.com/search?sxsrf=ALeKk030vLD0knXig3SqrFedh-aQwFfjIg:1592059124884&amp;q=%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E4%BD%A9%E8%B0%A2&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NMxIrjIsLMyxUIJw07JLkguS0iu1xLKTrfTTMnNywYRVSmZRanJJftEiVpGnG_Y87V_yrLvz2bT1h7Y_2bvyxYZFO1gZASWVVgFSAAAA&amp;sa=X&amp;ved=2ahUKEwi1_uW0gv_pAhUCK6YKHYTwCBkQmxMoATAkegQIDhAD"/>
+    <hyperlink ref="F5" r:id="rId6" display="https://www.google.com/search?sxsrf=ALeKk00Rcuds17Z70ne8PVLWudANImselQ:1592059156582&amp;q=%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%88%B4%E5%85%8B+%E7%94%B5%E5%BD%B1%E5%AF%BC%E6%BC%94&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEzLsywrMDYoUuLWz9U3MDQ0KojPKdISy0620k_LzMkFE1YpmUWpySX5RYtY5V5s7ng2bf2zjQ2Htj_r2PK0tVvh-ZStT_dufLp-z7M9U3awMgIANE0H8loAAAA&amp;sa=X&amp;ved=2ahUKEwjI5_TDgv_pAhVRFqYKHcM-BZAQmxMoATAbegQIDhAD"/>
+    <hyperlink ref="F6" r:id="rId7" display="https://www.google.com/search?sxsrf=ALeKk01L-y5zGdvCNWYlnd9fEojfkSxuLg:1592058729084&amp;q=%E9%82%81%E5%85%8B%E7%88%BE%C2%B7%E6%9F%A5%E9%9F%8B%E6%96%AF&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NMwwzDUtzkouVIJw0zLKswuzc0y0xLKTrfTTMnNywYRVSmZRanJJftEiVpGXTY1PW7ufd-w7tP3Z_KUv53c_m7Z-BysjAMdK8_ZSAAAA&amp;sa=X&amp;ved=2ahUKEwjwsoj4gP_pAhVHFqYKHWKHBwcQmxMoATAgegQIDxAD"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://www.google.com/search?sxsrf=ALeKk00d7IMF4lwIFhAP9Tfi8rSLg7CcPg:1592059392199&amp;q=%E9%99%B0%E6%AB%A5+kwang-bin+kim&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NMwwK4nPNc8qUuLSz9U3yMgrLK7I0hLLTrbST8vMyQUTVimZRanJJflFi1hFXs7c8Gz1UoXs8sS8dN2kzDyF7MzcHayMAAonLYpPAAAA&amp;sa=X&amp;ved=2ahUKEwi-0qG0g__pAhVOG6YKHX7YBxQQmxMoATAbegQIFRAD"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://www.google.com/search?sxsrf=ALeKk00OjmJ7P3EnJhEkum_RxjXDDfmlVA:1592060094506&amp;q=%E5%96%AC%E7%99%BB%C2%B7%E7%9A%AE%E7%88%BE&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEzLMjFNyjEqUuLUz9U3SCpIyTbXEstOttJPy8zJBRNWKZlFqckl-UWLWPmeTlvzfObuQ9ufz1r3vGPfDlZGAJSuKeRIAAAA&amp;sa=X&amp;ved=2ahUKEwjnm5ODhv_pAhVHBKYKHQ8iCxMQmxMoATAbegQIDxAD"/>
+    <hyperlink ref="G10" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11" display="https://www.google.com/search?sxsrf=ALeKk03E1ZHzrCpDcwavhHxe7X7WmfG6Eg:1592060516086&amp;q=%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E6%AC%A7%E5%BC%97%E5%85%B0%E5%A4%9A&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEzLzq0wqDApVuLSz9U3yEtOMcw21hLLTrbST8vMyQUTVimZRanJJflFi1jFn67rfLpv-_PmjkPbn61Z_nTP9KetG54umbWDlREA3z1IaVIAAAA&amp;sa=X&amp;ved=2ahUKEwiCnJbMh__pAhUvGaYKHeI3By8QmxMoATAZegQICxAD"/>
+    <hyperlink ref="G11" r:id="rId12"/>
+    <hyperlink ref="C12" r:id="rId13" display="https://ddm.com.tw/blog/post/blockers"/>
+    <hyperlink ref="C13" r:id="rId14" display="https://ddm.com.tw/blog/post/deathofstalin"/>
+    <hyperlink ref="C14" r:id="rId15" display="https://ddm.com.tw/blog/post/thelittlehours"/>
+    <hyperlink ref="C16" r:id="rId16" display="https://ddm.com.tw/blog/post/lesensdelafete"/>
+    <hyperlink ref="C17" r:id="rId17" display="https://ddm.com.tw/blog/post/ifeelpretty"/>
+    <hyperlink ref="C18" r:id="rId18" display="https://ddm.com.tw/blog/post/brotheroftheyear"/>
+    <hyperlink ref="C19" r:id="rId19" display="https://ddm.com.tw/blog/post/spywhodumpedme"/>
+    <hyperlink ref="C20" r:id="rId20" display="https://ddm.com.tw/blog/post/idealhome"/>
+    <hyperlink ref="K12" r:id="rId21" display="https://ddm.com.tw/blog/post/blockers"/>
+    <hyperlink ref="K13" r:id="rId22" display="https://ddm.com.tw/blog/post/deathofstalin"/>
+    <hyperlink ref="K14" r:id="rId23" display="https://ddm.com.tw/blog/post/thelittlehours"/>
+    <hyperlink ref="K15" r:id="rId24" display="https://ddm.com.tw/blog/post/319473144"/>
+    <hyperlink ref="K16" r:id="rId25" display="https://ddm.com.tw/blog/post/lesensdelafete"/>
+    <hyperlink ref="K17" r:id="rId26" display="https://ddm.com.tw/blog/post/ifeelpretty"/>
+    <hyperlink ref="K18" r:id="rId27" display="https://ddm.com.tw/blog/post/brotheroftheyear"/>
+    <hyperlink ref="K19" r:id="rId28" display="https://ddm.com.tw/blog/post/spywhodumpedme"/>
+    <hyperlink ref="K20" r:id="rId29" display="https://ddm.com.tw/blog/post/idealhome"/>
+    <hyperlink ref="K25" r:id="rId30" display="https://ddm.com.tw/blog/post/coco"/>
+    <hyperlink ref="K28" r:id="rId31" display="https://ddm.com.tw/blog/post/342965146"/>
+    <hyperlink ref="I9" r:id="rId32"/>
+    <hyperlink ref="G9" r:id="rId33"/>
+    <hyperlink ref="K33" r:id="rId34" display="https://ddm.com.tw/blog/post/avengers4-dummies"/>
+    <hyperlink ref="K36" r:id="rId35" display="https://ddm.com.tw/blog/post/339969740"/>
+    <hyperlink ref="K42" r:id="rId36" display="https://ddm.com.tw/blog/post/fiftyshadesfreed"/>
+    <hyperlink ref="K44" r:id="rId37" display="https://ddm.com.tw/blog/post/midnightsun"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
